--- a/クリックポスト発送情報/20200728235048/英子日本发货表格7.28.xlsx
+++ b/クリックポスト発送情報/20200728235048/英子日本发货表格7.28.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -135,6 +135,22 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628542315995</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628542315984</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628542315973</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>628542315962</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -290,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -393,13 +409,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -972,7 +991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1347,7 +1366,9 @@
       <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="37" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="16">
@@ -1372,10 +1393,12 @@
       <c r="I3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="37" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="22"/>
@@ -1385,22 +1408,24 @@
       <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="37" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>26</v>
@@ -1408,11 +1433,13 @@
       <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="K5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="K5" s="37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="24" t="s">
@@ -1437,7 +1464,7 @@
       <c r="I6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="8" spans="1:181" ht="121.95" customHeight="1"/>
